--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-allergyintolerance.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-allergyintolerance.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="324">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -904,6 +904,10 @@
   </si>
   <si>
     <t>AllergyIntolerance.reaction.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4274,13 +4278,13 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4331,7 +4335,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4346,7 +4350,7 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -4357,7 +4361,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4386,7 +4390,7 @@
         <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>134</v>
@@ -4439,7 +4443,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -4454,7 +4458,7 @@
         <v>136</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -4465,11 +4469,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4491,10 +4495,10 @@
         <v>131</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>134</v>
@@ -4549,7 +4553,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -4575,7 +4579,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4601,13 +4605,13 @@
         <v>152</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4636,10 +4640,10 @@
         <v>203</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>78</v>
@@ -4657,7 +4661,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -4672,7 +4676,7 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -4683,11 +4687,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4709,13 +4713,13 @@
         <v>152</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4744,10 +4748,10 @@
         <v>203</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>78</v>
@@ -4765,7 +4769,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>85</v>
@@ -4786,16 +4790,16 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4814,16 +4818,16 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4873,7 +4877,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -4888,7 +4892,7 @@
         <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -4899,7 +4903,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4925,10 +4929,10 @@
         <v>230</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4979,7 +4983,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5000,12 +5004,12 @@
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5031,13 +5035,13 @@
         <v>105</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5066,10 +5070,10 @@
         <v>156</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>78</v>
@@ -5087,7 +5091,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5113,7 +5117,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5139,13 +5143,13 @@
         <v>152</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5174,10 +5178,10 @@
         <v>203</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>78</v>
@@ -5195,7 +5199,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5210,7 +5214,7 @@
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5221,7 +5225,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5247,13 +5251,13 @@
         <v>258</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5303,7 +5307,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
